--- a/Xiaomi.xlsx
+++ b/Xiaomi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/gustavopc3_al_insper_edu_br/Documents/Ciência dos Dados/Projeto 1/Obtenção dos Tweets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/gustavopc3_al_insper_edu_br/Documents/Ciência dos Dados/Projeto 1/Obtenção dos Tweets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="645" documentId="11_57AEF009772B94CD7AC4037B2799FC45E12C14EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{055DAE63-9C6A-694F-B01E-21D6A9AA1479}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28219949-7086-3E4D-BBC1-E60AFE18DC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27100" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2629,13 +2629,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="124.1640625" customWidth="1"/>
+    <col min="1" max="1" width="185.5" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3466,6 +3466,9 @@
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
